--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -1232,7 +1232,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5" t="s">
         <v>39</v>
       </c>
